--- a/documentation/Gramatika-ver08.xlsx
+++ b/documentation/Gramatika-ver08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\_EVA\FIT\2021-LS\IVS\project02\addingToGithub\IFJ21\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C6186B5-137F-4ED2-A5D3-5F66872D7165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3D9DF-E84E-4E04-97CD-B3A1C9A08414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15330" yWindow="8220" windowWidth="28800" windowHeight="15465" xr2:uid="{F7ABA761-DE8C-46A3-9A12-1AE5C5993C9B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
   <si>
     <t>&lt;prog&gt;</t>
   </si>
@@ -689,10 +689,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1267,49 +1267,49 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
         <v>38</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="11">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
         <v>39</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="C44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>40</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>25</v>
@@ -1318,12 +1318,12 @@
         <v>1</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>25</v>
@@ -1332,12 +1332,12 @@
         <v>1</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>25</v>
@@ -1346,12 +1346,12 @@
         <v>1</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>25</v>
@@ -1360,12 +1360,12 @@
         <v>1</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>25</v>
@@ -1374,40 +1374,40 @@
         <v>1</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>44</v>
@@ -1415,63 +1415,63 @@
       <c r="C52" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>55</v>
+      <c r="D52" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
+        <v>48</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
         <v>49</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="C54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="11">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="11">
         <v>50</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>51</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>50</v>
@@ -1480,68 +1480,68 @@
         <v>1</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
         <v>55</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="C60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="11">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="11">
         <v>56</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="C61" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>57</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>53</v>
@@ -1549,41 +1549,41 @@
       <c r="C62" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>25</v>
+      <c r="D62" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>60</v>
@@ -1592,54 +1592,54 @@
         <v>1</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>69</v>
@@ -1648,12 +1648,12 @@
         <v>1</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>69</v>
@@ -1662,34 +1662,48 @@
         <v>1</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
+        <v>67</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
         <v>68</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="C73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>66</v>
       </c>
     </row>

--- a/documentation/Gramatika-ver08.xlsx
+++ b/documentation/Gramatika-ver08.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\_EVA\FIT\2021-LS\IVS\project02\addingToGithub\IFJ21\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3efae75f706e1dc0/_EVA/FIT/2021-LS/IVS/project02/addingToGithub/IFJ21/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3D9DF-E84E-4E04-97CD-B3A1C9A08414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{E532FE7A-99BD-40E5-997B-EE05DA8802FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15330" yWindow="8220" windowWidth="28800" windowHeight="15465" xr2:uid="{F7ABA761-DE8C-46A3-9A12-1AE5C5993C9B}"/>
+    <workbookView xWindow="-45735" yWindow="11340" windowWidth="19200" windowHeight="10305" xr2:uid="{F7ABA761-DE8C-46A3-9A12-1AE5C5993C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -691,9 +691,7 @@
   </sheetPr>
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/documentation/Gramatika-ver08.xlsx
+++ b/documentation/Gramatika-ver08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3efae75f706e1dc0/_EVA/FIT/2021-LS/IVS/project02/addingToGithub/IFJ21/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E532FE7A-99BD-40E5-997B-EE05DA8802FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{E532FE7A-99BD-40E5-997B-EE05DA8802FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A7E6A5C-119B-472D-A9CB-9F02AFE8E67D}"/>
   <bookViews>
-    <workbookView xWindow="-45735" yWindow="11340" windowWidth="19200" windowHeight="10305" xr2:uid="{F7ABA761-DE8C-46A3-9A12-1AE5C5993C9B}"/>
+    <workbookView xWindow="-45225" yWindow="11850" windowWidth="19200" windowHeight="10305" xr2:uid="{F7ABA761-DE8C-46A3-9A12-1AE5C5993C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,9 +252,6 @@
     <t>function id_f ( &lt;params_list&gt; &lt;return_fc&gt; end &lt;prog&gt;</t>
   </si>
   <si>
-    <t>epsilon</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;expressions&gt; </t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>number_int_value</t>
+  </si>
+  <si>
+    <t>Ԑ</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -371,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +694,9 @@
   </sheetPr>
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -924,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1190,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1204,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1212,7 +1217,7 @@
         <v>37.1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>1</v>
@@ -1226,13 +1231,13 @@
         <v>37.200000000000003</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1240,13 +1245,13 @@
         <v>37.299999999999997</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1254,13 +1259,13 @@
         <v>37.4</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1268,13 +1273,13 @@
         <v>37.5</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1301,8 +1306,8 @@
       <c r="C44" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>72</v>
+      <c r="D44" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1590,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
